--- a/数据下载_国债银行间.xlsx
+++ b/数据下载_国债银行间.xlsx
@@ -50,7 +50,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>cgBvAHcAcwA9ADUALABjAG8AbABzAD0AMQA0ADUAMwA=</t>
+          <t>cgBvAHcAcwA9ADYALABjAG8AbABzAD0AMQA0ADUAMwA=</t>
         </r>
       </text>
     </comment>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6801" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7587" uniqueCount="486">
   <si>
     <t>060009.IB</t>
   </si>
@@ -2027,283 +2027,289 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:BCW17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BBY1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:BCW7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="10.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="10.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="9.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="23" width="10.25" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="9.5" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="32" max="35" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="38" max="41" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="47" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="50" max="53" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="56" max="59" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="62" max="65" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="68" max="71" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="74" max="77" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="32" max="35" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="38" max="41" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="44" max="47" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="50" max="53" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="56" max="59" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="62" max="65" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="71" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="74" max="77" width="10.25" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="9.75" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="83" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="86" max="89" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="92" max="95" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="98" max="101" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="104" max="107" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="110" max="113" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="116" max="119" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="122" max="125" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="128" max="131" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="134" max="137" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="140" max="143" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="146" max="149" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="152" max="155" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="158" max="161" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="164" max="167" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="170" max="173" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="80" max="83" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="86" max="89" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="92" max="95" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="98" max="101" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="104" max="107" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="110" max="113" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="116" max="119" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="122" max="125" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="128" max="131" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="134" max="137" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="140" max="143" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="146" max="149" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="152" max="155" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="158" max="161" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="164" max="167" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="170" max="173" width="10.25" bestFit="1" customWidth="1"/>
     <col min="174" max="174" width="9.875" bestFit="1" customWidth="1"/>
     <col min="175" max="175" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="176" max="179" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="180" max="180" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="181" max="181" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="182" max="185" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="188" max="191" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="194" max="197" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="200" max="203" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="204" max="204" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="205" max="205" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="206" max="209" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="212" max="215" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="218" max="221" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="224" max="227" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="230" max="233" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="236" max="239" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="240" max="240" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="241" max="241" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="242" max="245" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="248" max="251" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="254" max="257" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="260" max="263" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="266" max="269" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="272" max="275" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="278" max="281" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="284" max="287" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="290" max="293" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="296" max="299" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="302" max="305" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="176" max="179" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="182" max="185" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="188" max="191" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="194" max="197" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="200" max="203" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="204" max="204" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="205" max="205" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="206" max="209" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="212" max="215" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="218" max="221" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="224" max="227" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="230" max="233" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="236" max="239" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="240" max="240" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="241" max="241" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="242" max="245" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="248" max="251" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="254" max="257" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="260" max="263" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="266" max="269" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="272" max="275" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="278" max="281" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="284" max="287" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="290" max="293" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="296" max="299" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="302" max="305" width="10.25" bestFit="1" customWidth="1"/>
     <col min="306" max="306" width="11.625" bestFit="1" customWidth="1"/>
     <col min="307" max="307" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="308" max="311" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="314" max="317" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="320" max="323" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="308" max="311" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="314" max="317" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="320" max="323" width="10.25" bestFit="1" customWidth="1"/>
     <col min="324" max="324" width="9.5" bestFit="1" customWidth="1"/>
     <col min="325" max="325" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="326" max="329" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="332" max="335" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="338" max="341" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="326" max="329" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="332" max="335" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="338" max="341" width="9.875" bestFit="1" customWidth="1"/>
     <col min="344" max="347" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="350" max="353" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="356" max="359" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="362" max="365" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="368" max="371" width="10" bestFit="1" customWidth="1"/>
+    <col min="350" max="353" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="356" max="359" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="362" max="365" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="368" max="371" width="10.125" bestFit="1" customWidth="1"/>
     <col min="372" max="372" width="9.625" bestFit="1" customWidth="1"/>
     <col min="373" max="373" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="374" max="377" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="380" max="383" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="386" max="389" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="392" max="395" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="398" max="401" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="404" max="407" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="410" max="413" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="416" max="419" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="420" max="420" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="421" max="421" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="422" max="425" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="426" max="426" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="427" max="427" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="428" max="431" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="434" max="437" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="374" max="377" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="380" max="383" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="386" max="389" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="392" max="395" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="398" max="401" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="404" max="407" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="410" max="413" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="416" max="419" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="420" max="420" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="421" max="421" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="422" max="425" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="426" max="426" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="427" max="427" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="428" max="431" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="434" max="437" width="10.375" bestFit="1" customWidth="1"/>
     <col min="438" max="438" width="9.5" bestFit="1" customWidth="1"/>
     <col min="439" max="439" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="440" max="440" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="441" max="443" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="446" max="449" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="452" max="455" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="458" max="462" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="463" max="463" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="464" max="467" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="470" max="473" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="474" max="474" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="475" max="475" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="476" max="479" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="482" max="485" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="488" max="491" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="494" max="497" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="500" max="503" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="506" max="509" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="510" max="510" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="511" max="511" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="512" max="515" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="518" max="521" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="524" max="527" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="530" max="533" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="536" max="539" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="542" max="545" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="548" max="551" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="554" max="557" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="560" max="563" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="566" max="569" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="572" max="575" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="440" max="440" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="441" max="443" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="446" max="449" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="452" max="455" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="458" max="462" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="463" max="463" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="464" max="467" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="470" max="473" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="474" max="474" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="475" max="475" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="476" max="479" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="482" max="485" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="488" max="491" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="494" max="497" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="500" max="503" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="506" max="509" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="510" max="510" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="511" max="511" width="13" bestFit="1" customWidth="1"/>
+    <col min="512" max="515" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="518" max="521" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="524" max="527" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="530" max="533" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="536" max="539" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="542" max="545" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="548" max="551" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="554" max="557" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="560" max="563" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="566" max="569" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="572" max="575" width="10.25" bestFit="1" customWidth="1"/>
     <col min="576" max="576" width="11.625" bestFit="1" customWidth="1"/>
     <col min="577" max="577" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="578" max="581" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="584" max="587" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="588" max="588" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="589" max="589" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="590" max="593" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="596" max="599" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="602" max="605" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="606" max="606" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="607" max="607" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="608" max="611" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="614" max="617" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="620" max="624" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="625" max="625" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="626" max="629" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="632" max="635" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="578" max="581" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="584" max="587" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="588" max="588" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="589" max="589" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="590" max="593" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="596" max="599" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="602" max="605" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="606" max="606" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="607" max="607" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="608" max="611" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="614" max="617" width="10" bestFit="1" customWidth="1"/>
+    <col min="620" max="624" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="625" max="625" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="626" max="629" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="632" max="635" width="10.25" bestFit="1" customWidth="1"/>
     <col min="636" max="636" width="9.5" bestFit="1" customWidth="1"/>
     <col min="637" max="637" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="638" max="641" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="642" max="642" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="643" max="643" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="644" max="647" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="650" max="653" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="638" max="641" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="642" max="642" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="643" max="643" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="644" max="647" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="650" max="653" width="10.25" bestFit="1" customWidth="1"/>
     <col min="654" max="654" width="9.5" bestFit="1" customWidth="1"/>
     <col min="655" max="655" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="656" max="659" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="656" max="659" width="10.25" bestFit="1" customWidth="1"/>
     <col min="660" max="660" width="9.625" bestFit="1" customWidth="1"/>
     <col min="661" max="661" width="14" bestFit="1" customWidth="1"/>
-    <col min="662" max="665" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="668" max="671" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="674" max="677" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="680" max="683" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="686" max="689" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="692" max="695" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="696" max="696" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="697" max="697" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="662" max="665" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="668" max="671" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="674" max="677" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="680" max="683" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="686" max="689" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="692" max="695" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="696" max="696" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="697" max="697" width="14.375" bestFit="1" customWidth="1"/>
     <col min="698" max="701" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="704" max="707" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="704" max="707" width="10.25" bestFit="1" customWidth="1"/>
     <col min="710" max="713" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="716" max="719" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="720" max="720" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="721" max="721" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="716" max="719" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="720" max="720" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="721" max="721" width="12.875" bestFit="1" customWidth="1"/>
     <col min="722" max="725" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="728" max="731" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="734" max="737" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="740" max="743" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="744" max="744" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="745" max="745" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="728" max="731" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="734" max="737" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="740" max="743" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="744" max="744" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="745" max="745" width="13.875" bestFit="1" customWidth="1"/>
     <col min="746" max="749" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="752" max="755" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="752" max="755" width="10.25" bestFit="1" customWidth="1"/>
     <col min="756" max="756" width="9.5" bestFit="1" customWidth="1"/>
     <col min="757" max="757" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="758" max="761" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="762" max="762" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="763" max="763" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="758" max="761" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="762" max="762" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="763" max="763" width="14.625" bestFit="1" customWidth="1"/>
     <col min="764" max="767" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="770" max="773" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="776" max="779" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="780" max="780" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="781" max="781" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="770" max="773" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="776" max="779" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="780" max="780" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="781" max="781" width="14.625" bestFit="1" customWidth="1"/>
     <col min="782" max="785" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="788" max="791" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="792" max="792" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="793" max="793" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="788" max="791" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="792" max="792" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="793" max="793" width="14.375" bestFit="1" customWidth="1"/>
     <col min="794" max="797" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="800" max="803" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="800" max="803" width="10.25" bestFit="1" customWidth="1"/>
     <col min="804" max="804" width="9.875" bestFit="1" customWidth="1"/>
     <col min="805" max="805" width="16.5" bestFit="1" customWidth="1"/>
     <col min="806" max="809" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="812" max="815" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="812" max="815" width="10.25" bestFit="1" customWidth="1"/>
     <col min="816" max="816" width="9.75" bestFit="1" customWidth="1"/>
     <col min="817" max="817" width="13" bestFit="1" customWidth="1"/>
     <col min="818" max="821" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="824" max="827" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="828" max="828" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="829" max="829" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="824" max="827" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="828" max="828" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="829" max="829" width="16.125" bestFit="1" customWidth="1"/>
     <col min="830" max="833" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="836" max="839" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="840" max="840" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="841" max="841" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="836" max="839" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="840" max="840" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="841" max="841" width="16.875" bestFit="1" customWidth="1"/>
     <col min="842" max="845" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="848" max="851" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="852" max="852" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="853" max="853" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="854" max="857" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="858" max="858" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="859" max="859" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="848" max="851" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="852" max="852" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="853" max="853" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="854" max="857" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="858" max="858" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="859" max="859" width="14.625" bestFit="1" customWidth="1"/>
     <col min="860" max="863" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="866" max="869" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="872" max="875" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="878" max="881" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="882" max="882" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="883" max="883" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="866" max="869" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="870" max="870" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="871" max="871" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="872" max="875" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="878" max="881" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="882" max="882" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="883" max="883" width="16.875" bestFit="1" customWidth="1"/>
     <col min="884" max="887" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="890" max="893" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="896" max="899" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="900" max="900" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="901" max="901" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="902" max="905" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="906" max="906" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="907" max="907" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="908" max="911" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="912" max="912" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="913" max="913" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="890" max="893" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="894" max="894" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="895" max="895" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="896" max="899" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="900" max="900" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="901" max="901" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="902" max="905" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="906" max="906" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="907" max="907" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="908" max="911" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="912" max="912" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="913" max="913" width="16.875" bestFit="1" customWidth="1"/>
     <col min="914" max="917" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="920" max="923" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="924" max="924" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="925" max="925" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="920" max="923" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="924" max="924" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="925" max="925" width="16.625" bestFit="1" customWidth="1"/>
     <col min="926" max="929" width="9.5" bestFit="1" customWidth="1"/>
     <col min="932" max="935" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="938" max="941" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="942" max="942" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="943" max="943" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="938" max="941" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="942" max="942" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="943" max="943" width="16.625" bestFit="1" customWidth="1"/>
     <col min="944" max="947" width="9.5" bestFit="1" customWidth="1"/>
     <col min="950" max="953" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="956" max="959" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="962" max="965" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="966" max="966" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="967" max="967" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="956" max="959" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="962" max="965" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="966" max="966" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="967" max="967" width="16.875" bestFit="1" customWidth="1"/>
     <col min="968" max="971" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="974" max="977" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="980" max="983" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="984" max="984" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="985" max="985" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="974" max="977" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="980" max="983" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="984" max="984" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="985" max="985" width="16.875" bestFit="1" customWidth="1"/>
     <col min="986" max="989" width="9.125" bestFit="1" customWidth="1"/>
     <col min="992" max="995" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="998" max="998" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="999" max="999" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="1000" max="1000" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="1001" max="1002" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="1003" max="1003" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="998" max="998" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="999" max="999" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1000" max="1000" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1001" max="1002" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="1003" max="1003" width="17.625" bestFit="1" customWidth="1"/>
     <col min="1004" max="1007" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="1010" max="1014" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="1015" max="1015" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="1016" max="1019" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1010" max="1014" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1015" max="1015" width="17" bestFit="1" customWidth="1"/>
+    <col min="1016" max="1019" width="9.875" bestFit="1" customWidth="1"/>
     <col min="1020" max="1020" width="9.25" bestFit="1" customWidth="1"/>
     <col min="1021" max="1021" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="1022" max="1025" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1031" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1022" max="1025" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1031" width="10.25" bestFit="1" customWidth="1"/>
     <col min="1046" max="1050" width="9.5" bestFit="1" customWidth="1"/>
     <col min="1051" max="1051" width="13.875" bestFit="1" customWidth="1"/>
     <col min="1082" max="1085" width="9.5" bestFit="1" customWidth="1"/>
@@ -2487,7 +2493,7 @@
     </row>
     <row r="4" spans="1:1453" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="str">
-        <f ca="1">[1]!HisQuote('Bond List'!IH2,"[Open,High,Low,Close,AvgPrice,Volume]","2","2012-08-17","2012-08-20",-1,"M",1,2,1,1,1,1,1,1,1,,1)</f>
+        <f ca="1">[1]!HisQuote('Bond List'!IH2,"[Open,High,Low,Close,AvgPrice,Volume]","2","2012-08-17","2012-08-21",-1,"M",1,2,1,1,1,1,1,1,1,,1)</f>
         <v>Wind资讯</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -19847,17 +19853,17 @@
       <c r="A8" s="4">
         <v>41141</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>249</v>
+      <c r="B8" s="7">
+        <v>107.0929</v>
+      </c>
+      <c r="C8" s="7">
+        <v>107.0929</v>
+      </c>
+      <c r="D8" s="7">
+        <v>107.0929</v>
+      </c>
+      <c r="E8" s="7">
+        <v>107.0929</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>249</v>
@@ -19865,17 +19871,17 @@
       <c r="G8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>249</v>
+      <c r="H8" s="7">
+        <v>102.66160000000001</v>
+      </c>
+      <c r="I8" s="7">
+        <v>102.66160000000001</v>
+      </c>
+      <c r="J8" s="7">
+        <v>102.66160000000001</v>
+      </c>
+      <c r="K8" s="7">
+        <v>102.66160000000001</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>249</v>
@@ -19883,17 +19889,17 @@
       <c r="M8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="N8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>249</v>
+      <c r="N8" s="7">
+        <v>85.336299999999994</v>
+      </c>
+      <c r="O8" s="7">
+        <v>85.336299999999994</v>
+      </c>
+      <c r="P8" s="7">
+        <v>85.336299999999994</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>85.336299999999994</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>249</v>
@@ -19901,17 +19907,17 @@
       <c r="S8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="V8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="W8" s="7" t="s">
-        <v>249</v>
+      <c r="T8" s="7">
+        <v>100.354</v>
+      </c>
+      <c r="U8" s="7">
+        <v>100.354</v>
+      </c>
+      <c r="V8" s="7">
+        <v>100.354</v>
+      </c>
+      <c r="W8" s="7">
+        <v>100.354</v>
       </c>
       <c r="X8" s="7" t="s">
         <v>249</v>
@@ -19919,17 +19925,17 @@
       <c r="Y8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="Z8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>249</v>
+      <c r="Z8" s="7">
+        <v>104.349</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>104.349</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>104.349</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>104.349</v>
       </c>
       <c r="AD8" s="7" t="s">
         <v>249</v>
@@ -19937,17 +19943,17 @@
       <c r="AE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AI8" s="7" t="s">
-        <v>249</v>
+      <c r="AF8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AG8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AH8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>100</v>
       </c>
       <c r="AJ8" s="7" t="s">
         <v>249</v>
@@ -19955,17 +19961,17 @@
       <c r="AK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AO8" s="7" t="s">
-        <v>249</v>
+      <c r="AL8" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>103.3</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>103.3</v>
       </c>
       <c r="AP8" s="7" t="s">
         <v>249</v>
@@ -19973,17 +19979,17 @@
       <c r="AQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AU8" s="7" t="s">
-        <v>249</v>
+      <c r="AR8" s="7">
+        <v>105.1061</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>105.1061</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>105.1061</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>105.1061</v>
       </c>
       <c r="AV8" s="7" t="s">
         <v>249</v>
@@ -19991,17 +19997,17 @@
       <c r="AW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BA8" s="7" t="s">
-        <v>249</v>
+      <c r="AX8" s="7">
+        <v>100.3476</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>100.3476</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>100.3476</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>100.3476</v>
       </c>
       <c r="BB8" s="7" t="s">
         <v>249</v>
@@ -20009,17 +20015,17 @@
       <c r="BC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="BD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BG8" s="7" t="s">
-        <v>249</v>
+      <c r="BD8" s="7">
+        <v>100.10290000000001</v>
+      </c>
+      <c r="BE8" s="7">
+        <v>100.10290000000001</v>
+      </c>
+      <c r="BF8" s="7">
+        <v>100.10290000000001</v>
+      </c>
+      <c r="BG8" s="7">
+        <v>100.10290000000001</v>
       </c>
       <c r="BH8" s="7" t="s">
         <v>249</v>
@@ -20027,17 +20033,17 @@
       <c r="BI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="BJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BM8" s="7" t="s">
-        <v>249</v>
+      <c r="BJ8" s="7">
+        <v>101.6</v>
+      </c>
+      <c r="BK8" s="7">
+        <v>101.6</v>
+      </c>
+      <c r="BL8" s="7">
+        <v>101.6</v>
+      </c>
+      <c r="BM8" s="7">
+        <v>101.6</v>
       </c>
       <c r="BN8" s="7" t="s">
         <v>249</v>
@@ -20045,17 +20051,17 @@
       <c r="BO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="BP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BS8" s="7" t="s">
-        <v>249</v>
+      <c r="BP8" s="7">
+        <v>100.3322</v>
+      </c>
+      <c r="BQ8" s="7">
+        <v>100.3322</v>
+      </c>
+      <c r="BR8" s="7">
+        <v>100.3322</v>
+      </c>
+      <c r="BS8" s="7">
+        <v>100.3322</v>
       </c>
       <c r="BT8" s="7" t="s">
         <v>249</v>
@@ -20063,17 +20069,17 @@
       <c r="BU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="BV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="BY8" s="7" t="s">
-        <v>249</v>
+      <c r="BV8" s="7">
+        <v>100.0222</v>
+      </c>
+      <c r="BW8" s="7">
+        <v>100.0222</v>
+      </c>
+      <c r="BX8" s="7">
+        <v>100.0222</v>
+      </c>
+      <c r="BY8" s="7">
+        <v>100.0222</v>
       </c>
       <c r="BZ8" s="7" t="s">
         <v>249</v>
@@ -20081,17 +20087,17 @@
       <c r="CA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CE8" s="7" t="s">
-        <v>249</v>
+      <c r="CB8" s="7">
+        <v>97.160200000000003</v>
+      </c>
+      <c r="CC8" s="7">
+        <v>97.160200000000003</v>
+      </c>
+      <c r="CD8" s="7">
+        <v>97.160200000000003</v>
+      </c>
+      <c r="CE8" s="7">
+        <v>97.160200000000003</v>
       </c>
       <c r="CF8" s="7" t="s">
         <v>249</v>
@@ -20099,35 +20105,35 @@
       <c r="CG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CQ8" s="7" t="s">
-        <v>249</v>
+      <c r="CH8" s="7">
+        <v>100.25230000000001</v>
+      </c>
+      <c r="CI8" s="7">
+        <v>100.25230000000001</v>
+      </c>
+      <c r="CJ8" s="7">
+        <v>100.24509999999999</v>
+      </c>
+      <c r="CK8" s="7">
+        <v>100.24509999999999</v>
+      </c>
+      <c r="CL8" s="7">
+        <v>1002.487</v>
+      </c>
+      <c r="CM8" s="7">
+        <v>40000</v>
+      </c>
+      <c r="CN8" s="7">
+        <v>95.663399999999996</v>
+      </c>
+      <c r="CO8" s="7">
+        <v>95.663399999999996</v>
+      </c>
+      <c r="CP8" s="7">
+        <v>95.663399999999996</v>
+      </c>
+      <c r="CQ8" s="7">
+        <v>95.663399999999996</v>
       </c>
       <c r="CR8" s="7" t="s">
         <v>249</v>
@@ -20135,17 +20141,17 @@
       <c r="CS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="CW8" s="7" t="s">
-        <v>249</v>
+      <c r="CT8" s="7">
+        <v>100.6536</v>
+      </c>
+      <c r="CU8" s="7">
+        <v>100.6536</v>
+      </c>
+      <c r="CV8" s="7">
+        <v>100.6536</v>
+      </c>
+      <c r="CW8" s="7">
+        <v>100.6536</v>
       </c>
       <c r="CX8" s="7" t="s">
         <v>249</v>
@@ -20153,17 +20159,17 @@
       <c r="CY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="CZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DC8" s="7" t="s">
-        <v>249</v>
+      <c r="CZ8" s="7">
+        <v>99.513400000000004</v>
+      </c>
+      <c r="DA8" s="7">
+        <v>99.513400000000004</v>
+      </c>
+      <c r="DB8" s="7">
+        <v>99.513400000000004</v>
+      </c>
+      <c r="DC8" s="7">
+        <v>99.513400000000004</v>
       </c>
       <c r="DD8" s="7" t="s">
         <v>249</v>
@@ -20171,17 +20177,17 @@
       <c r="DE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="DF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DI8" s="7" t="s">
-        <v>249</v>
+      <c r="DF8" s="7">
+        <v>99</v>
+      </c>
+      <c r="DG8" s="7">
+        <v>99</v>
+      </c>
+      <c r="DH8" s="7">
+        <v>99</v>
+      </c>
+      <c r="DI8" s="7">
+        <v>99</v>
       </c>
       <c r="DJ8" s="7" t="s">
         <v>249</v>
@@ -20189,17 +20195,17 @@
       <c r="DK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="DL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DO8" s="7" t="s">
-        <v>249</v>
+      <c r="DL8" s="7">
+        <v>100.5916</v>
+      </c>
+      <c r="DM8" s="7">
+        <v>100.5916</v>
+      </c>
+      <c r="DN8" s="7">
+        <v>100.5916</v>
+      </c>
+      <c r="DO8" s="7">
+        <v>100.5916</v>
       </c>
       <c r="DP8" s="7" t="s">
         <v>249</v>
@@ -20207,17 +20213,17 @@
       <c r="DQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="DR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DU8" s="7" t="s">
-        <v>249</v>
+      <c r="DR8" s="7">
+        <v>100</v>
+      </c>
+      <c r="DS8" s="7">
+        <v>100</v>
+      </c>
+      <c r="DT8" s="7">
+        <v>100</v>
+      </c>
+      <c r="DU8" s="7">
+        <v>100</v>
       </c>
       <c r="DV8" s="7" t="s">
         <v>249</v>
@@ -20225,17 +20231,17 @@
       <c r="DW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="DX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="DZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EA8" s="7" t="s">
-        <v>249</v>
+      <c r="DX8" s="7">
+        <v>109.9688</v>
+      </c>
+      <c r="DY8" s="7">
+        <v>109.9688</v>
+      </c>
+      <c r="DZ8" s="7">
+        <v>109.9688</v>
+      </c>
+      <c r="EA8" s="7">
+        <v>109.9688</v>
       </c>
       <c r="EB8" s="7" t="s">
         <v>249</v>
@@ -20243,17 +20249,17 @@
       <c r="EC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ED8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EG8" s="7" t="s">
-        <v>249</v>
+      <c r="ED8" s="7">
+        <v>107.6113</v>
+      </c>
+      <c r="EE8" s="7">
+        <v>107.6113</v>
+      </c>
+      <c r="EF8" s="7">
+        <v>107.6113</v>
+      </c>
+      <c r="EG8" s="7">
+        <v>107.6113</v>
       </c>
       <c r="EH8" s="7" t="s">
         <v>249</v>
@@ -20261,17 +20267,17 @@
       <c r="EI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="EJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EM8" s="7" t="s">
-        <v>249</v>
+      <c r="EJ8" s="7">
+        <v>110.7914</v>
+      </c>
+      <c r="EK8" s="7">
+        <v>110.7914</v>
+      </c>
+      <c r="EL8" s="7">
+        <v>110.7914</v>
+      </c>
+      <c r="EM8" s="7">
+        <v>110.7914</v>
       </c>
       <c r="EN8" s="7" t="s">
         <v>249</v>
@@ -20279,17 +20285,17 @@
       <c r="EO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="EP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ER8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ES8" s="7" t="s">
-        <v>249</v>
+      <c r="EP8" s="7">
+        <v>107.3188</v>
+      </c>
+      <c r="EQ8" s="7">
+        <v>107.3188</v>
+      </c>
+      <c r="ER8" s="7">
+        <v>107.3188</v>
+      </c>
+      <c r="ES8" s="7">
+        <v>107.3188</v>
       </c>
       <c r="ET8" s="7" t="s">
         <v>249</v>
@@ -20297,17 +20303,17 @@
       <c r="EU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="EV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="EY8" s="7" t="s">
-        <v>249</v>
+      <c r="EV8" s="7">
+        <v>112.0864</v>
+      </c>
+      <c r="EW8" s="7">
+        <v>112.0864</v>
+      </c>
+      <c r="EX8" s="7">
+        <v>112.0864</v>
+      </c>
+      <c r="EY8" s="7">
+        <v>112.0864</v>
       </c>
       <c r="EZ8" s="7" t="s">
         <v>249</v>
@@ -20315,17 +20321,17 @@
       <c r="FA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="FB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FE8" s="7" t="s">
-        <v>249</v>
+      <c r="FB8" s="7">
+        <v>100</v>
+      </c>
+      <c r="FC8" s="7">
+        <v>100</v>
+      </c>
+      <c r="FD8" s="7">
+        <v>100</v>
+      </c>
+      <c r="FE8" s="7">
+        <v>100</v>
       </c>
       <c r="FF8" s="7" t="s">
         <v>249</v>
@@ -20333,17 +20339,17 @@
       <c r="FG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="FH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FK8" s="7" t="s">
-        <v>249</v>
+      <c r="FH8" s="7">
+        <v>105.54049999999999</v>
+      </c>
+      <c r="FI8" s="7">
+        <v>105.54049999999999</v>
+      </c>
+      <c r="FJ8" s="7">
+        <v>105.54049999999999</v>
+      </c>
+      <c r="FK8" s="7">
+        <v>105.54049999999999</v>
       </c>
       <c r="FL8" s="7" t="s">
         <v>249</v>
@@ -20351,17 +20357,17 @@
       <c r="FM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="FN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FQ8" s="7" t="s">
-        <v>249</v>
+      <c r="FN8" s="7">
+        <v>100.3</v>
+      </c>
+      <c r="FO8" s="7">
+        <v>100.3</v>
+      </c>
+      <c r="FP8" s="7">
+        <v>100.3</v>
+      </c>
+      <c r="FQ8" s="7">
+        <v>100.3</v>
       </c>
       <c r="FR8" s="7" t="s">
         <v>249</v>
@@ -20369,35 +20375,35 @@
       <c r="FS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="FT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="FZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GC8" s="7" t="s">
-        <v>249</v>
+      <c r="FT8" s="7">
+        <v>101.7004</v>
+      </c>
+      <c r="FU8" s="7">
+        <v>101.99290000000001</v>
+      </c>
+      <c r="FV8" s="7">
+        <v>101.7004</v>
+      </c>
+      <c r="FW8" s="7">
+        <v>101.99290000000001</v>
+      </c>
+      <c r="FX8" s="7">
+        <v>1018.949</v>
+      </c>
+      <c r="FY8" s="7">
+        <v>270000</v>
+      </c>
+      <c r="FZ8" s="7">
+        <v>103.5051</v>
+      </c>
+      <c r="GA8" s="7">
+        <v>103.5051</v>
+      </c>
+      <c r="GB8" s="7">
+        <v>103.5051</v>
+      </c>
+      <c r="GC8" s="7">
+        <v>103.5051</v>
       </c>
       <c r="GD8" s="7" t="s">
         <v>249</v>
@@ -20405,17 +20411,17 @@
       <c r="GE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="GF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GI8" s="7" t="s">
-        <v>249</v>
+      <c r="GF8" s="7">
+        <v>101.7367</v>
+      </c>
+      <c r="GG8" s="7">
+        <v>101.7367</v>
+      </c>
+      <c r="GH8" s="7">
+        <v>101.7367</v>
+      </c>
+      <c r="GI8" s="7">
+        <v>101.7367</v>
       </c>
       <c r="GJ8" s="7" t="s">
         <v>249</v>
@@ -20423,17 +20429,17 @@
       <c r="GK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="GL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GO8" s="7" t="s">
-        <v>249</v>
+      <c r="GL8" s="7">
+        <v>107.4131</v>
+      </c>
+      <c r="GM8" s="7">
+        <v>107.4131</v>
+      </c>
+      <c r="GN8" s="7">
+        <v>107.4131</v>
+      </c>
+      <c r="GO8" s="7">
+        <v>107.4131</v>
       </c>
       <c r="GP8" s="7" t="s">
         <v>249</v>
@@ -20441,35 +20447,35 @@
       <c r="GQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="GR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="GZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HA8" s="7" t="s">
-        <v>249</v>
+      <c r="GR8" s="7">
+        <v>109.39830000000001</v>
+      </c>
+      <c r="GS8" s="7">
+        <v>109.4</v>
+      </c>
+      <c r="GT8" s="7">
+        <v>109.39830000000001</v>
+      </c>
+      <c r="GU8" s="7">
+        <v>109.4</v>
+      </c>
+      <c r="GV8" s="7">
+        <v>1093.992</v>
+      </c>
+      <c r="GW8" s="7">
+        <v>400000</v>
+      </c>
+      <c r="GX8" s="7">
+        <v>103.10250000000001</v>
+      </c>
+      <c r="GY8" s="7">
+        <v>103.10250000000001</v>
+      </c>
+      <c r="GZ8" s="7">
+        <v>103.10250000000001</v>
+      </c>
+      <c r="HA8" s="7">
+        <v>103.10250000000001</v>
       </c>
       <c r="HB8" s="7" t="s">
         <v>249</v>
@@ -20477,17 +20483,17 @@
       <c r="HC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HG8" s="7" t="s">
-        <v>249</v>
+      <c r="HD8" s="7">
+        <v>100.6687</v>
+      </c>
+      <c r="HE8" s="7">
+        <v>100.6687</v>
+      </c>
+      <c r="HF8" s="7">
+        <v>100.6687</v>
+      </c>
+      <c r="HG8" s="7">
+        <v>100.6687</v>
       </c>
       <c r="HH8" s="7" t="s">
         <v>249</v>
@@ -20495,17 +20501,17 @@
       <c r="HI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HM8" s="7" t="s">
-        <v>249</v>
+      <c r="HJ8" s="7">
+        <v>104.1828</v>
+      </c>
+      <c r="HK8" s="7">
+        <v>104.1828</v>
+      </c>
+      <c r="HL8" s="7">
+        <v>104.1828</v>
+      </c>
+      <c r="HM8" s="7">
+        <v>104.1828</v>
       </c>
       <c r="HN8" s="7" t="s">
         <v>249</v>
@@ -20513,17 +20519,17 @@
       <c r="HO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HS8" s="7" t="s">
-        <v>249</v>
+      <c r="HP8" s="7">
+        <v>100.5234</v>
+      </c>
+      <c r="HQ8" s="7">
+        <v>100.5234</v>
+      </c>
+      <c r="HR8" s="7">
+        <v>100.5234</v>
+      </c>
+      <c r="HS8" s="7">
+        <v>100.5234</v>
       </c>
       <c r="HT8" s="7" t="s">
         <v>249</v>
@@ -20531,17 +20537,17 @@
       <c r="HU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="HV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="HY8" s="7" t="s">
-        <v>249</v>
+      <c r="HV8" s="7">
+        <v>107.1589</v>
+      </c>
+      <c r="HW8" s="7">
+        <v>107.1589</v>
+      </c>
+      <c r="HX8" s="7">
+        <v>107.1589</v>
+      </c>
+      <c r="HY8" s="7">
+        <v>107.1589</v>
       </c>
       <c r="HZ8" s="7" t="s">
         <v>249</v>
@@ -20549,35 +20555,35 @@
       <c r="IA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ID8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="II8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IK8" s="7" t="s">
-        <v>249</v>
+      <c r="IB8" s="7">
+        <v>104.99079999999999</v>
+      </c>
+      <c r="IC8" s="7">
+        <v>104.99079999999999</v>
+      </c>
+      <c r="ID8" s="7">
+        <v>104.98950000000001</v>
+      </c>
+      <c r="IE8" s="7">
+        <v>104.98950000000001</v>
+      </c>
+      <c r="IF8" s="7">
+        <v>1049.902</v>
+      </c>
+      <c r="IG8" s="7">
+        <v>1140000</v>
+      </c>
+      <c r="IH8" s="7">
+        <v>101.1609</v>
+      </c>
+      <c r="II8" s="7">
+        <v>101.1609</v>
+      </c>
+      <c r="IJ8" s="7">
+        <v>101.1609</v>
+      </c>
+      <c r="IK8" s="7">
+        <v>101.1609</v>
       </c>
       <c r="IL8" s="7" t="s">
         <v>249</v>
@@ -20585,17 +20591,17 @@
       <c r="IM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IQ8" s="7" t="s">
-        <v>249</v>
+      <c r="IN8" s="7">
+        <v>105.9614</v>
+      </c>
+      <c r="IO8" s="7">
+        <v>105.9614</v>
+      </c>
+      <c r="IP8" s="7">
+        <v>105.9614</v>
+      </c>
+      <c r="IQ8" s="7">
+        <v>105.9614</v>
       </c>
       <c r="IR8" s="7" t="s">
         <v>249</v>
@@ -20603,17 +20609,17 @@
       <c r="IS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="IW8" s="7" t="s">
-        <v>249</v>
+      <c r="IT8" s="7">
+        <v>100.9328</v>
+      </c>
+      <c r="IU8" s="7">
+        <v>100.9328</v>
+      </c>
+      <c r="IV8" s="7">
+        <v>100.9328</v>
+      </c>
+      <c r="IW8" s="7">
+        <v>100.9328</v>
       </c>
       <c r="IX8" s="7" t="s">
         <v>249</v>
@@ -20621,17 +20627,17 @@
       <c r="IY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="IZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JC8" s="7" t="s">
-        <v>249</v>
+      <c r="IZ8" s="7">
+        <v>103.2805</v>
+      </c>
+      <c r="JA8" s="7">
+        <v>103.2805</v>
+      </c>
+      <c r="JB8" s="7">
+        <v>103.2805</v>
+      </c>
+      <c r="JC8" s="7">
+        <v>103.2805</v>
       </c>
       <c r="JD8" s="7" t="s">
         <v>249</v>
@@ -20639,17 +20645,17 @@
       <c r="JE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="JF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JI8" s="7" t="s">
-        <v>249</v>
+      <c r="JF8" s="7">
+        <v>112.79819999999999</v>
+      </c>
+      <c r="JG8" s="7">
+        <v>112.79819999999999</v>
+      </c>
+      <c r="JH8" s="7">
+        <v>112.79819999999999</v>
+      </c>
+      <c r="JI8" s="7">
+        <v>112.79819999999999</v>
       </c>
       <c r="JJ8" s="7" t="s">
         <v>249</v>
@@ -20657,17 +20663,17 @@
       <c r="JK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="JL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JO8" s="7" t="s">
-        <v>249</v>
+      <c r="JL8" s="7">
+        <v>105.188</v>
+      </c>
+      <c r="JM8" s="7">
+        <v>105.188</v>
+      </c>
+      <c r="JN8" s="7">
+        <v>105.188</v>
+      </c>
+      <c r="JO8" s="7">
+        <v>105.188</v>
       </c>
       <c r="JP8" s="7" t="s">
         <v>249</v>
@@ -20675,17 +20681,17 @@
       <c r="JQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="JR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JU8" s="7" t="s">
-        <v>249</v>
+      <c r="JR8" s="7">
+        <v>101.1026</v>
+      </c>
+      <c r="JS8" s="7">
+        <v>101.1026</v>
+      </c>
+      <c r="JT8" s="7">
+        <v>101.1026</v>
+      </c>
+      <c r="JU8" s="7">
+        <v>101.1026</v>
       </c>
       <c r="JV8" s="7" t="s">
         <v>249</v>
@@ -20693,17 +20699,17 @@
       <c r="JW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="JX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="JZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KA8" s="7" t="s">
-        <v>249</v>
+      <c r="JX8" s="7">
+        <v>101.0042</v>
+      </c>
+      <c r="JY8" s="7">
+        <v>101.0042</v>
+      </c>
+      <c r="JZ8" s="7">
+        <v>101.0042</v>
+      </c>
+      <c r="KA8" s="7">
+        <v>101.0042</v>
       </c>
       <c r="KB8" s="7" t="s">
         <v>249</v>
@@ -20711,17 +20717,17 @@
       <c r="KC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="KD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KG8" s="7" t="s">
-        <v>249</v>
+      <c r="KD8" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="KE8" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="KF8" s="7">
+        <v>97.19</v>
+      </c>
+      <c r="KG8" s="7">
+        <v>97.19</v>
       </c>
       <c r="KH8" s="7" t="s">
         <v>249</v>
@@ -20729,17 +20735,17 @@
       <c r="KI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="KJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KM8" s="7" t="s">
-        <v>249</v>
+      <c r="KJ8" s="7">
+        <v>97.871600000000001</v>
+      </c>
+      <c r="KK8" s="7">
+        <v>97.871600000000001</v>
+      </c>
+      <c r="KL8" s="7">
+        <v>97.871600000000001</v>
+      </c>
+      <c r="KM8" s="7">
+        <v>97.871600000000001</v>
       </c>
       <c r="KN8" s="7" t="s">
         <v>249</v>
@@ -20747,17 +20753,17 @@
       <c r="KO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="KP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KS8" s="7" t="s">
-        <v>249</v>
+      <c r="KP8" s="7">
+        <v>101.5723</v>
+      </c>
+      <c r="KQ8" s="7">
+        <v>101.5723</v>
+      </c>
+      <c r="KR8" s="7">
+        <v>101.5723</v>
+      </c>
+      <c r="KS8" s="7">
+        <v>101.5723</v>
       </c>
       <c r="KT8" s="7" t="s">
         <v>249</v>
@@ -20765,17 +20771,17 @@
       <c r="KU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="KV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="KY8" s="7" t="s">
-        <v>249</v>
+      <c r="KV8" s="7">
+        <v>99.0869</v>
+      </c>
+      <c r="KW8" s="7">
+        <v>99.0869</v>
+      </c>
+      <c r="KX8" s="7">
+        <v>99.0869</v>
+      </c>
+      <c r="KY8" s="7">
+        <v>99.0869</v>
       </c>
       <c r="KZ8" s="7" t="s">
         <v>249</v>
@@ -20783,17 +20789,17 @@
       <c r="LA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="LB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LE8" s="7" t="s">
-        <v>249</v>
+      <c r="LB8" s="7">
+        <v>99.3</v>
+      </c>
+      <c r="LC8" s="7">
+        <v>99.3</v>
+      </c>
+      <c r="LD8" s="7">
+        <v>99.3</v>
+      </c>
+      <c r="LE8" s="7">
+        <v>99.3</v>
       </c>
       <c r="LF8" s="7" t="s">
         <v>249</v>
@@ -20801,17 +20807,17 @@
       <c r="LG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="LH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LK8" s="7" t="s">
-        <v>249</v>
+      <c r="LH8" s="7">
+        <v>100.0896</v>
+      </c>
+      <c r="LI8" s="7">
+        <v>100.0896</v>
+      </c>
+      <c r="LJ8" s="7">
+        <v>100.0896</v>
+      </c>
+      <c r="LK8" s="7">
+        <v>100.0896</v>
       </c>
       <c r="LL8" s="7" t="s">
         <v>249</v>
@@ -20819,17 +20825,17 @@
       <c r="LM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="LN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LQ8" s="7" t="s">
-        <v>249</v>
+      <c r="LN8" s="7">
+        <v>99.702100000000002</v>
+      </c>
+      <c r="LO8" s="7">
+        <v>99.702100000000002</v>
+      </c>
+      <c r="LP8" s="7">
+        <v>99.702100000000002</v>
+      </c>
+      <c r="LQ8" s="7">
+        <v>99.702100000000002</v>
       </c>
       <c r="LR8" s="7" t="s">
         <v>249</v>
@@ -20837,17 +20843,17 @@
       <c r="LS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="LT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="LW8" s="7" t="s">
-        <v>249</v>
+      <c r="LT8" s="7">
+        <v>99.997699999999995</v>
+      </c>
+      <c r="LU8" s="7">
+        <v>99.997699999999995</v>
+      </c>
+      <c r="LV8" s="7">
+        <v>99.997699999999995</v>
+      </c>
+      <c r="LW8" s="7">
+        <v>99.997699999999995</v>
       </c>
       <c r="LX8" s="7" t="s">
         <v>249</v>
@@ -20855,17 +20861,17 @@
       <c r="LY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="LZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MC8" s="7" t="s">
-        <v>249</v>
+      <c r="LZ8" s="7">
+        <v>99.591999999999999</v>
+      </c>
+      <c r="MA8" s="7">
+        <v>99.591999999999999</v>
+      </c>
+      <c r="MB8" s="7">
+        <v>99.591999999999999</v>
+      </c>
+      <c r="MC8" s="7">
+        <v>99.591999999999999</v>
       </c>
       <c r="MD8" s="7" t="s">
         <v>249</v>
@@ -20891,17 +20897,17 @@
       <c r="MK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ML8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MO8" s="7" t="s">
-        <v>249</v>
+      <c r="ML8" s="7">
+        <v>98.347200000000001</v>
+      </c>
+      <c r="MM8" s="7">
+        <v>98.347200000000001</v>
+      </c>
+      <c r="MN8" s="7">
+        <v>98.347200000000001</v>
+      </c>
+      <c r="MO8" s="7">
+        <v>98.347200000000001</v>
       </c>
       <c r="MP8" s="7" t="s">
         <v>249</v>
@@ -20909,17 +20915,17 @@
       <c r="MQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="MR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MU8" s="7" t="s">
-        <v>249</v>
+      <c r="MR8" s="7">
+        <v>100.9862</v>
+      </c>
+      <c r="MS8" s="7">
+        <v>100.9862</v>
+      </c>
+      <c r="MT8" s="7">
+        <v>100.9862</v>
+      </c>
+      <c r="MU8" s="7">
+        <v>100.9862</v>
       </c>
       <c r="MV8" s="7" t="s">
         <v>249</v>
@@ -20927,17 +20933,17 @@
       <c r="MW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="MX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="MZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NA8" s="7" t="s">
-        <v>249</v>
+      <c r="MX8" s="7">
+        <v>97.018299999999996</v>
+      </c>
+      <c r="MY8" s="7">
+        <v>97.018299999999996</v>
+      </c>
+      <c r="MZ8" s="7">
+        <v>97.018299999999996</v>
+      </c>
+      <c r="NA8" s="7">
+        <v>97.018299999999996</v>
       </c>
       <c r="NB8" s="7" t="s">
         <v>249</v>
@@ -20945,17 +20951,17 @@
       <c r="NC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ND8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NG8" s="7" t="s">
-        <v>249</v>
+      <c r="ND8" s="7">
+        <v>100</v>
+      </c>
+      <c r="NE8" s="7">
+        <v>100</v>
+      </c>
+      <c r="NF8" s="7">
+        <v>100</v>
+      </c>
+      <c r="NG8" s="7">
+        <v>100</v>
       </c>
       <c r="NH8" s="7" t="s">
         <v>249</v>
@@ -20963,17 +20969,17 @@
       <c r="NI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="NJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NM8" s="7" t="s">
-        <v>249</v>
+      <c r="NJ8" s="7">
+        <v>102.0046</v>
+      </c>
+      <c r="NK8" s="7">
+        <v>102.0046</v>
+      </c>
+      <c r="NL8" s="7">
+        <v>102.0046</v>
+      </c>
+      <c r="NM8" s="7">
+        <v>102.0046</v>
       </c>
       <c r="NN8" s="7" t="s">
         <v>249</v>
@@ -20981,17 +20987,17 @@
       <c r="NO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="NP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NS8" s="7" t="s">
-        <v>249</v>
+      <c r="NP8" s="7">
+        <v>99.311700000000002</v>
+      </c>
+      <c r="NQ8" s="7">
+        <v>99.311700000000002</v>
+      </c>
+      <c r="NR8" s="7">
+        <v>99.311700000000002</v>
+      </c>
+      <c r="NS8" s="7">
+        <v>99.311700000000002</v>
       </c>
       <c r="NT8" s="7" t="s">
         <v>249</v>
@@ -20999,17 +21005,17 @@
       <c r="NU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="NV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="NY8" s="7" t="s">
-        <v>249</v>
+      <c r="NV8" s="7">
+        <v>100.8068</v>
+      </c>
+      <c r="NW8" s="7">
+        <v>100.8068</v>
+      </c>
+      <c r="NX8" s="7">
+        <v>100.8068</v>
+      </c>
+      <c r="NY8" s="7">
+        <v>100.8068</v>
       </c>
       <c r="NZ8" s="7" t="s">
         <v>249</v>
@@ -21017,17 +21023,17 @@
       <c r="OA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="OB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OE8" s="7" t="s">
-        <v>249</v>
+      <c r="OB8" s="7">
+        <v>101.7685</v>
+      </c>
+      <c r="OC8" s="7">
+        <v>101.7685</v>
+      </c>
+      <c r="OD8" s="7">
+        <v>101.7685</v>
+      </c>
+      <c r="OE8" s="7">
+        <v>101.7685</v>
       </c>
       <c r="OF8" s="7" t="s">
         <v>249</v>
@@ -21035,17 +21041,17 @@
       <c r="OG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="OH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OK8" s="7" t="s">
-        <v>249</v>
+      <c r="OH8" s="7">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="OI8" s="7">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="OJ8" s="7">
+        <v>99.787999999999997</v>
+      </c>
+      <c r="OK8" s="7">
+        <v>99.787999999999997</v>
       </c>
       <c r="OL8" s="7" t="s">
         <v>249</v>
@@ -21053,17 +21059,17 @@
       <c r="OM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ON8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OQ8" s="7" t="s">
-        <v>249</v>
+      <c r="ON8" s="7">
+        <v>100.9033</v>
+      </c>
+      <c r="OO8" s="7">
+        <v>100.9033</v>
+      </c>
+      <c r="OP8" s="7">
+        <v>100.9033</v>
+      </c>
+      <c r="OQ8" s="7">
+        <v>100.9033</v>
       </c>
       <c r="OR8" s="7" t="s">
         <v>249</v>
@@ -21071,17 +21077,17 @@
       <c r="OS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="OT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="OW8" s="7" t="s">
-        <v>249</v>
+      <c r="OT8" s="7">
+        <v>100.6033</v>
+      </c>
+      <c r="OU8" s="7">
+        <v>100.6033</v>
+      </c>
+      <c r="OV8" s="7">
+        <v>100.6033</v>
+      </c>
+      <c r="OW8" s="7">
+        <v>100.6033</v>
       </c>
       <c r="OX8" s="7" t="s">
         <v>249</v>
@@ -21089,53 +21095,53 @@
       <c r="OY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="OZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PO8" s="7" t="s">
-        <v>249</v>
+      <c r="OZ8" s="7">
+        <v>103</v>
+      </c>
+      <c r="PA8" s="7">
+        <v>103</v>
+      </c>
+      <c r="PB8" s="7">
+        <v>102.9988</v>
+      </c>
+      <c r="PC8" s="7">
+        <v>102.9988</v>
+      </c>
+      <c r="PD8" s="7">
+        <v>1029.9939999999999</v>
+      </c>
+      <c r="PE8" s="7">
+        <v>600000</v>
+      </c>
+      <c r="PF8" s="7">
+        <v>100</v>
+      </c>
+      <c r="PG8" s="7">
+        <v>100</v>
+      </c>
+      <c r="PH8" s="7">
+        <v>100</v>
+      </c>
+      <c r="PI8" s="7">
+        <v>100</v>
+      </c>
+      <c r="PJ8" s="7">
+        <v>1000</v>
+      </c>
+      <c r="PK8" s="7">
+        <v>9000000</v>
+      </c>
+      <c r="PL8" s="7">
+        <v>99.955600000000004</v>
+      </c>
+      <c r="PM8" s="7">
+        <v>99.955600000000004</v>
+      </c>
+      <c r="PN8" s="7">
+        <v>99.955600000000004</v>
+      </c>
+      <c r="PO8" s="7">
+        <v>99.955600000000004</v>
       </c>
       <c r="PP8" s="7" t="s">
         <v>249</v>
@@ -21143,17 +21149,17 @@
       <c r="PQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="PR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PU8" s="7" t="s">
-        <v>249</v>
+      <c r="PR8" s="7">
+        <v>99.8048</v>
+      </c>
+      <c r="PS8" s="7">
+        <v>99.8048</v>
+      </c>
+      <c r="PT8" s="7">
+        <v>99.8048</v>
+      </c>
+      <c r="PU8" s="7">
+        <v>99.8048</v>
       </c>
       <c r="PV8" s="7" t="s">
         <v>249</v>
@@ -21161,17 +21167,17 @@
       <c r="PW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="PX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="PZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QA8" s="7" t="s">
-        <v>249</v>
+      <c r="PX8" s="7">
+        <v>100.654</v>
+      </c>
+      <c r="PY8" s="7">
+        <v>100.654</v>
+      </c>
+      <c r="PZ8" s="7">
+        <v>100.654</v>
+      </c>
+      <c r="QA8" s="7">
+        <v>100.654</v>
       </c>
       <c r="QB8" s="7" t="s">
         <v>249</v>
@@ -21179,17 +21185,17 @@
       <c r="QC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="QD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QG8" s="7" t="s">
-        <v>249</v>
+      <c r="QD8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QE8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QF8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QG8" s="7">
+        <v>100</v>
       </c>
       <c r="QH8" s="7" t="s">
         <v>249</v>
@@ -21197,17 +21203,17 @@
       <c r="QI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="QJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QM8" s="7" t="s">
-        <v>249</v>
+      <c r="QJ8" s="7">
+        <v>103.9024</v>
+      </c>
+      <c r="QK8" s="7">
+        <v>103.9024</v>
+      </c>
+      <c r="QL8" s="7">
+        <v>103.9024</v>
+      </c>
+      <c r="QM8" s="7">
+        <v>103.9024</v>
       </c>
       <c r="QN8" s="7" t="s">
         <v>249</v>
@@ -21215,35 +21221,35 @@
       <c r="QO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="QP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="QY8" s="7" t="s">
-        <v>249</v>
+      <c r="QP8" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="QQ8" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="QR8" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="QS8" s="7">
+        <v>99.99</v>
+      </c>
+      <c r="QT8" s="7">
+        <v>999.9</v>
+      </c>
+      <c r="QU8" s="7">
+        <v>960000</v>
+      </c>
+      <c r="QV8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QW8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QX8" s="7">
+        <v>100</v>
+      </c>
+      <c r="QY8" s="7">
+        <v>100</v>
       </c>
       <c r="QZ8" s="7" t="s">
         <v>249</v>
@@ -21251,35 +21257,35 @@
       <c r="RA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="RB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RK8" s="7" t="s">
-        <v>249</v>
+      <c r="RB8" s="7">
+        <v>101.18210000000001</v>
+      </c>
+      <c r="RC8" s="7">
+        <v>101.1835</v>
+      </c>
+      <c r="RD8" s="7">
+        <v>101.18210000000001</v>
+      </c>
+      <c r="RE8" s="7">
+        <v>101.1835</v>
+      </c>
+      <c r="RF8" s="7">
+        <v>1011.828</v>
+      </c>
+      <c r="RG8" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="RH8" s="7">
+        <v>100.1614</v>
+      </c>
+      <c r="RI8" s="7">
+        <v>100.1614</v>
+      </c>
+      <c r="RJ8" s="7">
+        <v>100.1614</v>
+      </c>
+      <c r="RK8" s="7">
+        <v>100.1614</v>
       </c>
       <c r="RL8" s="7" t="s">
         <v>249</v>
@@ -21287,17 +21293,17 @@
       <c r="RM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="RN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RQ8" s="7" t="s">
-        <v>249</v>
+      <c r="RN8" s="7">
+        <v>100.87779999999999</v>
+      </c>
+      <c r="RO8" s="7">
+        <v>100.87779999999999</v>
+      </c>
+      <c r="RP8" s="7">
+        <v>100.87779999999999</v>
+      </c>
+      <c r="RQ8" s="7">
+        <v>100.87779999999999</v>
       </c>
       <c r="RR8" s="7" t="s">
         <v>249</v>
@@ -21305,17 +21311,17 @@
       <c r="RS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="RT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="RW8" s="7" t="s">
-        <v>249</v>
+      <c r="RT8" s="7">
+        <v>99.454599999999999</v>
+      </c>
+      <c r="RU8" s="7">
+        <v>99.454599999999999</v>
+      </c>
+      <c r="RV8" s="7">
+        <v>99.454599999999999</v>
+      </c>
+      <c r="RW8" s="7">
+        <v>99.454599999999999</v>
       </c>
       <c r="RX8" s="7" t="s">
         <v>249</v>
@@ -21323,17 +21329,17 @@
       <c r="RY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="RZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SC8" s="7" t="s">
-        <v>249</v>
+      <c r="RZ8" s="7">
+        <v>99.095200000000006</v>
+      </c>
+      <c r="SA8" s="7">
+        <v>99.095200000000006</v>
+      </c>
+      <c r="SB8" s="7">
+        <v>99.095200000000006</v>
+      </c>
+      <c r="SC8" s="7">
+        <v>99.095200000000006</v>
       </c>
       <c r="SD8" s="7" t="s">
         <v>249</v>
@@ -21341,17 +21347,17 @@
       <c r="SE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="SF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SI8" s="7" t="s">
-        <v>249</v>
+      <c r="SF8" s="7">
+        <v>100.0224</v>
+      </c>
+      <c r="SG8" s="7">
+        <v>100.0224</v>
+      </c>
+      <c r="SH8" s="7">
+        <v>100.0224</v>
+      </c>
+      <c r="SI8" s="7">
+        <v>100.0224</v>
       </c>
       <c r="SJ8" s="7" t="s">
         <v>249</v>
@@ -21359,35 +21365,35 @@
       <c r="SK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="SL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ST8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SU8" s="7" t="s">
-        <v>249</v>
+      <c r="SL8" s="7">
+        <v>100.5981</v>
+      </c>
+      <c r="SM8" s="7">
+        <v>100.5996</v>
+      </c>
+      <c r="SN8" s="7">
+        <v>100.5981</v>
+      </c>
+      <c r="SO8" s="7">
+        <v>100.5996</v>
+      </c>
+      <c r="SP8" s="7">
+        <v>1005.9880000000001</v>
+      </c>
+      <c r="SQ8" s="7">
+        <v>80000</v>
+      </c>
+      <c r="SR8" s="7">
+        <v>99.983000000000004</v>
+      </c>
+      <c r="SS8" s="7">
+        <v>99.983000000000004</v>
+      </c>
+      <c r="ST8" s="7">
+        <v>99.983000000000004</v>
+      </c>
+      <c r="SU8" s="7">
+        <v>99.983000000000004</v>
       </c>
       <c r="SV8" s="7" t="s">
         <v>249</v>
@@ -21395,17 +21401,17 @@
       <c r="SW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="SX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="SZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TA8" s="7" t="s">
-        <v>249</v>
+      <c r="SX8" s="7">
+        <v>100</v>
+      </c>
+      <c r="SY8" s="7">
+        <v>100</v>
+      </c>
+      <c r="SZ8" s="7">
+        <v>100</v>
+      </c>
+      <c r="TA8" s="7">
+        <v>100</v>
       </c>
       <c r="TB8" s="7" t="s">
         <v>249</v>
@@ -21413,17 +21419,17 @@
       <c r="TC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="TD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TG8" s="7" t="s">
-        <v>249</v>
+      <c r="TD8" s="7">
+        <v>98.858800000000002</v>
+      </c>
+      <c r="TE8" s="7">
+        <v>98.858800000000002</v>
+      </c>
+      <c r="TF8" s="7">
+        <v>98.858800000000002</v>
+      </c>
+      <c r="TG8" s="7">
+        <v>98.858800000000002</v>
       </c>
       <c r="TH8" s="7" t="s">
         <v>249</v>
@@ -21431,17 +21437,17 @@
       <c r="TI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="TJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TM8" s="7" t="s">
-        <v>249</v>
+      <c r="TJ8" s="7">
+        <v>99.654899999999998</v>
+      </c>
+      <c r="TK8" s="7">
+        <v>99.654899999999998</v>
+      </c>
+      <c r="TL8" s="7">
+        <v>99.654899999999998</v>
+      </c>
+      <c r="TM8" s="7">
+        <v>99.654899999999998</v>
       </c>
       <c r="TN8" s="7" t="s">
         <v>249</v>
@@ -21449,17 +21455,17 @@
       <c r="TO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="TP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TS8" s="7" t="s">
-        <v>249</v>
+      <c r="TP8" s="7">
+        <v>99.41</v>
+      </c>
+      <c r="TQ8" s="7">
+        <v>99.41</v>
+      </c>
+      <c r="TR8" s="7">
+        <v>99.41</v>
+      </c>
+      <c r="TS8" s="7">
+        <v>99.41</v>
       </c>
       <c r="TT8" s="7" t="s">
         <v>249</v>
@@ -21467,17 +21473,17 @@
       <c r="TU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="TV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="TY8" s="7" t="s">
-        <v>249</v>
+      <c r="TV8" s="7">
+        <v>94.910499999999999</v>
+      </c>
+      <c r="TW8" s="7">
+        <v>94.910499999999999</v>
+      </c>
+      <c r="TX8" s="7">
+        <v>94.910499999999999</v>
+      </c>
+      <c r="TY8" s="7">
+        <v>94.910499999999999</v>
       </c>
       <c r="TZ8" s="7" t="s">
         <v>249</v>
@@ -21485,17 +21491,17 @@
       <c r="UA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="UB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UE8" s="7" t="s">
-        <v>249</v>
+      <c r="UB8" s="7">
+        <v>100.322</v>
+      </c>
+      <c r="UC8" s="7">
+        <v>100.322</v>
+      </c>
+      <c r="UD8" s="7">
+        <v>100.322</v>
+      </c>
+      <c r="UE8" s="7">
+        <v>100.322</v>
       </c>
       <c r="UF8" s="7" t="s">
         <v>249</v>
@@ -21503,17 +21509,17 @@
       <c r="UG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="UH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UK8" s="7" t="s">
-        <v>249</v>
+      <c r="UH8" s="7">
+        <v>100.0523</v>
+      </c>
+      <c r="UI8" s="7">
+        <v>100.0523</v>
+      </c>
+      <c r="UJ8" s="7">
+        <v>100.0523</v>
+      </c>
+      <c r="UK8" s="7">
+        <v>100.0523</v>
       </c>
       <c r="UL8" s="7" t="s">
         <v>249</v>
@@ -21521,17 +21527,17 @@
       <c r="UM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="UN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UQ8" s="7" t="s">
-        <v>249</v>
+      <c r="UN8" s="7">
+        <v>98.601600000000005</v>
+      </c>
+      <c r="UO8" s="7">
+        <v>98.601600000000005</v>
+      </c>
+      <c r="UP8" s="7">
+        <v>98.601600000000005</v>
+      </c>
+      <c r="UQ8" s="7">
+        <v>98.601600000000005</v>
       </c>
       <c r="UR8" s="7" t="s">
         <v>249</v>
@@ -21539,17 +21545,17 @@
       <c r="US8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="UT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="UW8" s="7" t="s">
-        <v>249</v>
+      <c r="UT8" s="7">
+        <v>98.839299999999994</v>
+      </c>
+      <c r="UU8" s="7">
+        <v>98.839299999999994</v>
+      </c>
+      <c r="UV8" s="7">
+        <v>98.839299999999994</v>
+      </c>
+      <c r="UW8" s="7">
+        <v>98.839299999999994</v>
       </c>
       <c r="UX8" s="7" t="s">
         <v>249</v>
@@ -21557,17 +21563,17 @@
       <c r="UY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="UZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VC8" s="7" t="s">
-        <v>249</v>
+      <c r="UZ8" s="7">
+        <v>100.7518</v>
+      </c>
+      <c r="VA8" s="7">
+        <v>100.7518</v>
+      </c>
+      <c r="VB8" s="7">
+        <v>100.7518</v>
+      </c>
+      <c r="VC8" s="7">
+        <v>100.7518</v>
       </c>
       <c r="VD8" s="7" t="s">
         <v>249</v>
@@ -21575,17 +21581,17 @@
       <c r="VE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="VF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VI8" s="7" t="s">
-        <v>249</v>
+      <c r="VF8" s="7">
+        <v>99.522599999999997</v>
+      </c>
+      <c r="VG8" s="7">
+        <v>99.522599999999997</v>
+      </c>
+      <c r="VH8" s="7">
+        <v>99.522599999999997</v>
+      </c>
+      <c r="VI8" s="7">
+        <v>99.522599999999997</v>
       </c>
       <c r="VJ8" s="7" t="s">
         <v>249</v>
@@ -21593,35 +21599,35 @@
       <c r="VK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="VL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VU8" s="7" t="s">
-        <v>249</v>
+      <c r="VL8" s="7">
+        <v>98.690899999999999</v>
+      </c>
+      <c r="VM8" s="7">
+        <v>98.690899999999999</v>
+      </c>
+      <c r="VN8" s="7">
+        <v>98.646199999999993</v>
+      </c>
+      <c r="VO8" s="7">
+        <v>98.646199999999993</v>
+      </c>
+      <c r="VP8" s="7">
+        <v>986.68600000000004</v>
+      </c>
+      <c r="VQ8" s="7">
+        <v>20000</v>
+      </c>
+      <c r="VR8" s="7">
+        <v>97.45</v>
+      </c>
+      <c r="VS8" s="7">
+        <v>97.45</v>
+      </c>
+      <c r="VT8" s="7">
+        <v>97.45</v>
+      </c>
+      <c r="VU8" s="7">
+        <v>97.45</v>
       </c>
       <c r="VV8" s="7" t="s">
         <v>249</v>
@@ -21629,17 +21635,17 @@
       <c r="VW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="VX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="VZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WA8" s="7" t="s">
-        <v>249</v>
+      <c r="VX8" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="VY8" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="VZ8" s="7">
+        <v>98.3</v>
+      </c>
+      <c r="WA8" s="7">
+        <v>98.3</v>
       </c>
       <c r="WB8" s="7" t="s">
         <v>249</v>
@@ -21647,35 +21653,35 @@
       <c r="WC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="WD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WM8" s="7" t="s">
-        <v>249</v>
+      <c r="WD8" s="7">
+        <v>99.512100000000004</v>
+      </c>
+      <c r="WE8" s="7">
+        <v>99.514799999999994</v>
+      </c>
+      <c r="WF8" s="7">
+        <v>99.512100000000004</v>
+      </c>
+      <c r="WG8" s="7">
+        <v>99.514799999999994</v>
+      </c>
+      <c r="WH8" s="7">
+        <v>995.13400000000001</v>
+      </c>
+      <c r="WI8" s="7">
+        <v>920000</v>
+      </c>
+      <c r="WJ8" s="7">
+        <v>97.448800000000006</v>
+      </c>
+      <c r="WK8" s="7">
+        <v>97.448800000000006</v>
+      </c>
+      <c r="WL8" s="7">
+        <v>97.448800000000006</v>
+      </c>
+      <c r="WM8" s="7">
+        <v>97.448800000000006</v>
       </c>
       <c r="WN8" s="7" t="s">
         <v>249</v>
@@ -21683,17 +21689,17 @@
       <c r="WO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="WP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WS8" s="7" t="s">
-        <v>249</v>
+      <c r="WP8" s="7">
+        <v>99.200199999999995</v>
+      </c>
+      <c r="WQ8" s="7">
+        <v>99.200199999999995</v>
+      </c>
+      <c r="WR8" s="7">
+        <v>99.200199999999995</v>
+      </c>
+      <c r="WS8" s="7">
+        <v>99.200199999999995</v>
       </c>
       <c r="WT8" s="7" t="s">
         <v>249</v>
@@ -21701,35 +21707,35 @@
       <c r="WU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="WV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="WZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XE8" s="7" t="s">
-        <v>249</v>
+      <c r="WV8" s="7">
+        <v>99.408100000000005</v>
+      </c>
+      <c r="WW8" s="7">
+        <v>99.411699999999996</v>
+      </c>
+      <c r="WX8" s="7">
+        <v>99.408100000000005</v>
+      </c>
+      <c r="WY8" s="7">
+        <v>99.411699999999996</v>
+      </c>
+      <c r="WZ8" s="7">
+        <v>994.09900000000005</v>
+      </c>
+      <c r="XA8" s="7">
+        <v>700000</v>
+      </c>
+      <c r="XB8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XC8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XD8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XE8" s="7">
+        <v>99.8</v>
       </c>
       <c r="XF8" s="7" t="s">
         <v>249</v>
@@ -21737,17 +21743,17 @@
       <c r="XG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="XH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XK8" s="7" t="s">
-        <v>249</v>
+      <c r="XH8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XI8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XJ8" s="7">
+        <v>99.8</v>
+      </c>
+      <c r="XK8" s="7">
+        <v>99.8</v>
       </c>
       <c r="XL8" s="7" t="s">
         <v>249</v>
@@ -21755,35 +21761,35 @@
       <c r="XM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="XN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="XW8" s="7" t="s">
-        <v>249</v>
+      <c r="XN8" s="7">
+        <v>99.853200000000001</v>
+      </c>
+      <c r="XO8" s="7">
+        <v>99.855000000000004</v>
+      </c>
+      <c r="XP8" s="7">
+        <v>99.804400000000001</v>
+      </c>
+      <c r="XQ8" s="7">
+        <v>99.855000000000004</v>
+      </c>
+      <c r="XR8" s="7">
+        <v>998.51900000000001</v>
+      </c>
+      <c r="XS8" s="7">
+        <v>836900</v>
+      </c>
+      <c r="XT8" s="7">
+        <v>100.4397</v>
+      </c>
+      <c r="XU8" s="7">
+        <v>100.4397</v>
+      </c>
+      <c r="XV8" s="7">
+        <v>100.4397</v>
+      </c>
+      <c r="XW8" s="7">
+        <v>100.4397</v>
       </c>
       <c r="XX8" s="7" t="s">
         <v>249</v>
@@ -21791,17 +21797,17 @@
       <c r="XY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="XZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YC8" s="7" t="s">
-        <v>249</v>
+      <c r="XZ8" s="7">
+        <v>102.69889999999999</v>
+      </c>
+      <c r="YA8" s="7">
+        <v>102.69889999999999</v>
+      </c>
+      <c r="YB8" s="7">
+        <v>102.69889999999999</v>
+      </c>
+      <c r="YC8" s="7">
+        <v>102.69889999999999</v>
       </c>
       <c r="YD8" s="7" t="s">
         <v>249</v>
@@ -21809,17 +21815,17 @@
       <c r="YE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="YF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YI8" s="7" t="s">
-        <v>249</v>
+      <c r="YF8" s="7">
+        <v>100.2684</v>
+      </c>
+      <c r="YG8" s="7">
+        <v>100.2684</v>
+      </c>
+      <c r="YH8" s="7">
+        <v>100.2684</v>
+      </c>
+      <c r="YI8" s="7">
+        <v>100.2684</v>
       </c>
       <c r="YJ8" s="7" t="s">
         <v>249</v>
@@ -21827,17 +21833,17 @@
       <c r="YK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="YL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YO8" s="7" t="s">
-        <v>249</v>
+      <c r="YL8" s="7">
+        <v>101.6168</v>
+      </c>
+      <c r="YM8" s="7">
+        <v>101.6168</v>
+      </c>
+      <c r="YN8" s="7">
+        <v>101.6168</v>
+      </c>
+      <c r="YO8" s="7">
+        <v>101.6168</v>
       </c>
       <c r="YP8" s="7" t="s">
         <v>249</v>
@@ -21845,17 +21851,17 @@
       <c r="YQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="YR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YU8" s="7" t="s">
-        <v>249</v>
+      <c r="YR8" s="7">
+        <v>104.19499999999999</v>
+      </c>
+      <c r="YS8" s="7">
+        <v>104.19499999999999</v>
+      </c>
+      <c r="YT8" s="7">
+        <v>104.19499999999999</v>
+      </c>
+      <c r="YU8" s="7">
+        <v>104.19499999999999</v>
       </c>
       <c r="YV8" s="7" t="s">
         <v>249</v>
@@ -21863,17 +21869,17 @@
       <c r="YW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="YX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="YZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZA8" s="7" t="s">
-        <v>249</v>
+      <c r="YX8" s="7">
+        <v>103.485</v>
+      </c>
+      <c r="YY8" s="7">
+        <v>103.485</v>
+      </c>
+      <c r="YZ8" s="7">
+        <v>103.485</v>
+      </c>
+      <c r="ZA8" s="7">
+        <v>103.485</v>
       </c>
       <c r="ZB8" s="7" t="s">
         <v>249</v>
@@ -21881,17 +21887,17 @@
       <c r="ZC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ZD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZG8" s="7" t="s">
-        <v>249</v>
+      <c r="ZD8" s="7">
+        <v>102.41889999999999</v>
+      </c>
+      <c r="ZE8" s="7">
+        <v>102.41889999999999</v>
+      </c>
+      <c r="ZF8" s="7">
+        <v>102.41889999999999</v>
+      </c>
+      <c r="ZG8" s="7">
+        <v>102.41889999999999</v>
       </c>
       <c r="ZH8" s="7" t="s">
         <v>249</v>
@@ -21899,17 +21905,17 @@
       <c r="ZI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ZJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZM8" s="7" t="s">
-        <v>249</v>
+      <c r="ZJ8" s="7">
+        <v>103.4982</v>
+      </c>
+      <c r="ZK8" s="7">
+        <v>103.4982</v>
+      </c>
+      <c r="ZL8" s="7">
+        <v>103.4982</v>
+      </c>
+      <c r="ZM8" s="7">
+        <v>103.4982</v>
       </c>
       <c r="ZN8" s="7" t="s">
         <v>249</v>
@@ -21917,23 +21923,23 @@
       <c r="ZO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ZP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ZU8" s="7" t="s">
-        <v>249</v>
+      <c r="ZP8" s="7">
+        <v>104.5</v>
+      </c>
+      <c r="ZQ8" s="7">
+        <v>104.5</v>
+      </c>
+      <c r="ZR8" s="7">
+        <v>104.49979999999999</v>
+      </c>
+      <c r="ZS8" s="7">
+        <v>104.49979999999999</v>
+      </c>
+      <c r="ZT8" s="7">
+        <v>1044.999</v>
+      </c>
+      <c r="ZU8" s="7">
+        <v>400000</v>
       </c>
       <c r="ZV8" s="7" t="s">
         <v>249</v>
@@ -21953,17 +21959,17 @@
       <c r="AAA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AAB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAE8" s="7" t="s">
-        <v>249</v>
+      <c r="AAB8" s="7">
+        <v>104.4355</v>
+      </c>
+      <c r="AAC8" s="7">
+        <v>104.4355</v>
+      </c>
+      <c r="AAD8" s="7">
+        <v>104.4355</v>
+      </c>
+      <c r="AAE8" s="7">
+        <v>104.4355</v>
       </c>
       <c r="AAF8" s="7" t="s">
         <v>249</v>
@@ -21989,23 +21995,23 @@
       <c r="AAM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AAN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AAS8" s="7" t="s">
-        <v>249</v>
+      <c r="AAN8" s="7">
+        <v>102.5471</v>
+      </c>
+      <c r="AAO8" s="7">
+        <v>102.5471</v>
+      </c>
+      <c r="AAP8" s="7">
+        <v>102.5471</v>
+      </c>
+      <c r="AAQ8" s="7">
+        <v>102.5471</v>
+      </c>
+      <c r="AAR8" s="7">
+        <v>1025.471</v>
+      </c>
+      <c r="AAS8" s="7">
+        <v>10000</v>
       </c>
       <c r="AAT8" s="7" t="s">
         <v>249</v>
@@ -22025,17 +22031,17 @@
       <c r="AAY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AAZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABC8" s="7" t="s">
-        <v>249</v>
+      <c r="AAZ8" s="7">
+        <v>103.6024</v>
+      </c>
+      <c r="ABA8" s="7">
+        <v>103.6024</v>
+      </c>
+      <c r="ABB8" s="7">
+        <v>103.6024</v>
+      </c>
+      <c r="ABC8" s="7">
+        <v>103.6024</v>
       </c>
       <c r="ABD8" s="7" t="s">
         <v>249</v>
@@ -22043,17 +22049,17 @@
       <c r="ABE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ABF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABI8" s="7" t="s">
-        <v>249</v>
+      <c r="ABF8" s="7">
+        <v>103.9461</v>
+      </c>
+      <c r="ABG8" s="7">
+        <v>103.9461</v>
+      </c>
+      <c r="ABH8" s="7">
+        <v>103.9461</v>
+      </c>
+      <c r="ABI8" s="7">
+        <v>103.9461</v>
       </c>
       <c r="ABJ8" s="7" t="s">
         <v>249</v>
@@ -22061,23 +22067,23 @@
       <c r="ABK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ABL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABQ8" s="7" t="s">
-        <v>249</v>
+      <c r="ABL8" s="7">
+        <v>100.89</v>
+      </c>
+      <c r="ABM8" s="7">
+        <v>100.89</v>
+      </c>
+      <c r="ABN8" s="7">
+        <v>100.7084</v>
+      </c>
+      <c r="ABO8" s="7">
+        <v>100.82940000000001</v>
+      </c>
+      <c r="ABP8" s="7">
+        <v>1007.398</v>
+      </c>
+      <c r="ABQ8" s="7">
+        <v>130000</v>
       </c>
       <c r="ABR8" s="7" t="s">
         <v>249</v>
@@ -22097,17 +22103,17 @@
       <c r="ABW8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ABX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ABZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACA8" s="7" t="s">
-        <v>249</v>
+      <c r="ABX8" s="7">
+        <v>103.78400000000001</v>
+      </c>
+      <c r="ABY8" s="7">
+        <v>103.78400000000001</v>
+      </c>
+      <c r="ABZ8" s="7">
+        <v>103.78400000000001</v>
+      </c>
+      <c r="ACA8" s="7">
+        <v>103.78400000000001</v>
       </c>
       <c r="ACB8" s="7" t="s">
         <v>249</v>
@@ -22115,23 +22121,23 @@
       <c r="ACC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ACD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACI8" s="7" t="s">
-        <v>249</v>
+      <c r="ACD8" s="7">
+        <v>104</v>
+      </c>
+      <c r="ACE8" s="7">
+        <v>104</v>
+      </c>
+      <c r="ACF8" s="7">
+        <v>103.99850000000001</v>
+      </c>
+      <c r="ACG8" s="7">
+        <v>103.99850000000001</v>
+      </c>
+      <c r="ACH8" s="7">
+        <v>1039.992</v>
+      </c>
+      <c r="ACI8" s="7">
+        <v>600000</v>
       </c>
       <c r="ACJ8" s="7" t="s">
         <v>249</v>
@@ -22151,17 +22157,17 @@
       <c r="ACO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ACP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACS8" s="7" t="s">
-        <v>249</v>
+      <c r="ACP8" s="7">
+        <v>105.3545</v>
+      </c>
+      <c r="ACQ8" s="7">
+        <v>105.3545</v>
+      </c>
+      <c r="ACR8" s="7">
+        <v>105.3545</v>
+      </c>
+      <c r="ACS8" s="7">
+        <v>105.3545</v>
       </c>
       <c r="ACT8" s="7" t="s">
         <v>249</v>
@@ -22169,23 +22175,23 @@
       <c r="ACU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ACV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ACZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADA8" s="7" t="s">
-        <v>249</v>
+      <c r="ACV8" s="7">
+        <v>100.9883</v>
+      </c>
+      <c r="ACW8" s="7">
+        <v>101.0264</v>
+      </c>
+      <c r="ACX8" s="7">
+        <v>100.8844</v>
+      </c>
+      <c r="ACY8" s="7">
+        <v>100.8844</v>
+      </c>
+      <c r="ACZ8" s="7">
+        <v>1010.04</v>
+      </c>
+      <c r="ADA8" s="7">
+        <v>440000</v>
       </c>
       <c r="ADB8" s="7" t="s">
         <v>249</v>
@@ -22205,23 +22211,23 @@
       <c r="ADG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ADH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADM8" s="7" t="s">
-        <v>249</v>
+      <c r="ADH8" s="7">
+        <v>102.089</v>
+      </c>
+      <c r="ADI8" s="7">
+        <v>102.1888</v>
+      </c>
+      <c r="ADJ8" s="7">
+        <v>101.90900000000001</v>
+      </c>
+      <c r="ADK8" s="7">
+        <v>101.90900000000001</v>
+      </c>
+      <c r="ADL8" s="7">
+        <v>1021.796</v>
+      </c>
+      <c r="ADM8" s="7">
+        <v>440000</v>
       </c>
       <c r="ADN8" s="7" t="s">
         <v>249</v>
@@ -22241,17 +22247,17 @@
       <c r="ADS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ADT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ADW8" s="7" t="s">
-        <v>249</v>
+      <c r="ADT8" s="7">
+        <v>104.4974</v>
+      </c>
+      <c r="ADU8" s="7">
+        <v>104.4974</v>
+      </c>
+      <c r="ADV8" s="7">
+        <v>104.4974</v>
+      </c>
+      <c r="ADW8" s="7">
+        <v>104.4974</v>
       </c>
       <c r="ADX8" s="7" t="s">
         <v>249</v>
@@ -22277,17 +22283,17 @@
       <c r="AEE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AEF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEI8" s="7" t="s">
-        <v>249</v>
+      <c r="AEF8" s="7">
+        <v>106.20050000000001</v>
+      </c>
+      <c r="AEG8" s="7">
+        <v>106.20050000000001</v>
+      </c>
+      <c r="AEH8" s="7">
+        <v>106.20050000000001</v>
+      </c>
+      <c r="AEI8" s="7">
+        <v>106.20050000000001</v>
       </c>
       <c r="AEJ8" s="7" t="s">
         <v>249</v>
@@ -22313,23 +22319,23 @@
       <c r="AEQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AER8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AES8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AET8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AEW8" s="7" t="s">
-        <v>249</v>
+      <c r="AER8" s="7">
+        <v>102.8777</v>
+      </c>
+      <c r="AES8" s="7">
+        <v>102.8783</v>
+      </c>
+      <c r="AET8" s="7">
+        <v>102.8777</v>
+      </c>
+      <c r="AEU8" s="7">
+        <v>102.8783</v>
+      </c>
+      <c r="AEV8" s="7">
+        <v>1028.78</v>
+      </c>
+      <c r="AEW8" s="7">
+        <v>1000000</v>
       </c>
       <c r="AEX8" s="7" t="s">
         <v>249</v>
@@ -22349,23 +22355,23 @@
       <c r="AFC8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AFD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFI8" s="7" t="s">
-        <v>249</v>
+      <c r="AFD8" s="7">
+        <v>104.54989999999999</v>
+      </c>
+      <c r="AFE8" s="7">
+        <v>105.0274</v>
+      </c>
+      <c r="AFF8" s="7">
+        <v>104.54989999999999</v>
+      </c>
+      <c r="AFG8" s="7">
+        <v>104.70959999999999</v>
+      </c>
+      <c r="AFH8" s="7">
+        <v>1045.7190000000001</v>
+      </c>
+      <c r="AFI8" s="7">
+        <v>1380000</v>
       </c>
       <c r="AFJ8" s="7" t="s">
         <v>249</v>
@@ -22385,41 +22391,41 @@
       <c r="AFO8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AFP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AFZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGA8" s="7" t="s">
-        <v>249</v>
+      <c r="AFP8" s="7">
+        <v>100.1</v>
+      </c>
+      <c r="AFQ8" s="7">
+        <v>100.11490000000001</v>
+      </c>
+      <c r="AFR8" s="7">
+        <v>100.1</v>
+      </c>
+      <c r="AFS8" s="7">
+        <v>100.1148</v>
+      </c>
+      <c r="AFT8" s="7">
+        <v>1001.1</v>
+      </c>
+      <c r="AFU8" s="7">
+        <v>2170000</v>
+      </c>
+      <c r="AFV8" s="7">
+        <v>102.1926</v>
+      </c>
+      <c r="AFW8" s="7">
+        <v>102.6062</v>
+      </c>
+      <c r="AFX8" s="7">
+        <v>102.1926</v>
+      </c>
+      <c r="AFY8" s="7">
+        <v>102.5234</v>
+      </c>
+      <c r="AFZ8" s="7">
+        <v>1023.9589999999999</v>
+      </c>
+      <c r="AGA8" s="7">
+        <v>440000</v>
       </c>
       <c r="AGB8" s="7" t="s">
         <v>249</v>
@@ -22439,35 +22445,35 @@
       <c r="AGG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AGH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGQ8" s="7" t="s">
-        <v>249</v>
+      <c r="AGH8" s="7">
+        <v>102.7054</v>
+      </c>
+      <c r="AGI8" s="7">
+        <v>102.7054</v>
+      </c>
+      <c r="AGJ8" s="7">
+        <v>102.58710000000001</v>
+      </c>
+      <c r="AGK8" s="7">
+        <v>102.58710000000001</v>
+      </c>
+      <c r="AGL8" s="7">
+        <v>1026.462</v>
+      </c>
+      <c r="AGM8" s="7">
+        <v>20000</v>
+      </c>
+      <c r="AGN8" s="7">
+        <v>102.163</v>
+      </c>
+      <c r="AGO8" s="7">
+        <v>102.163</v>
+      </c>
+      <c r="AGP8" s="7">
+        <v>102.163</v>
+      </c>
+      <c r="AGQ8" s="7">
+        <v>102.163</v>
       </c>
       <c r="AGR8" s="7" t="s">
         <v>249</v>
@@ -22475,23 +22481,23 @@
       <c r="AGS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AGT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AGY8" s="7" t="s">
-        <v>249</v>
+      <c r="AGT8" s="7">
+        <v>101.81180000000001</v>
+      </c>
+      <c r="AGU8" s="7">
+        <v>101.81180000000001</v>
+      </c>
+      <c r="AGV8" s="7">
+        <v>101.65</v>
+      </c>
+      <c r="AGW8" s="7">
+        <v>101.6502</v>
+      </c>
+      <c r="AGX8" s="7">
+        <v>1017.366</v>
+      </c>
+      <c r="AGY8" s="7">
+        <v>1850000</v>
       </c>
       <c r="AGZ8" s="7" t="s">
         <v>249</v>
@@ -22511,77 +22517,77 @@
       <c r="AHE8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AHF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHG8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHQ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AHZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIC8" s="7" t="s">
-        <v>249</v>
+      <c r="AHF8" s="7">
+        <v>100.18989999999999</v>
+      </c>
+      <c r="AHG8" s="7">
+        <v>100.18989999999999</v>
+      </c>
+      <c r="AHH8" s="7">
+        <v>100.18989999999999</v>
+      </c>
+      <c r="AHI8" s="7">
+        <v>100.18989999999999</v>
+      </c>
+      <c r="AHJ8" s="7">
+        <v>1001.899</v>
+      </c>
+      <c r="AHK8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="AHL8" s="7">
+        <v>100.0754</v>
+      </c>
+      <c r="AHM8" s="7">
+        <v>100.0754</v>
+      </c>
+      <c r="AHN8" s="7">
+        <v>100.03319999999999</v>
+      </c>
+      <c r="AHO8" s="7">
+        <v>100.03319999999999</v>
+      </c>
+      <c r="AHP8" s="7">
+        <v>1000.69</v>
+      </c>
+      <c r="AHQ8" s="7">
+        <v>1080000</v>
+      </c>
+      <c r="AHR8" s="7">
+        <v>100.1065</v>
+      </c>
+      <c r="AHS8" s="7">
+        <v>100.178</v>
+      </c>
+      <c r="AHT8" s="7">
+        <v>100.0688</v>
+      </c>
+      <c r="AHU8" s="7">
+        <v>100.0688</v>
+      </c>
+      <c r="AHV8" s="7">
+        <v>1001.495</v>
+      </c>
+      <c r="AHW8" s="7">
+        <v>3210000</v>
+      </c>
+      <c r="AHX8" s="7">
+        <v>100.6099</v>
+      </c>
+      <c r="AHY8" s="7">
+        <v>100.9845</v>
+      </c>
+      <c r="AHZ8" s="7">
+        <v>100.5059</v>
+      </c>
+      <c r="AIA8" s="7">
+        <v>100.5475</v>
+      </c>
+      <c r="AIB8" s="7">
+        <v>1008.92</v>
+      </c>
+      <c r="AIC8" s="7">
+        <v>2840000</v>
       </c>
       <c r="AID8" s="7" t="s">
         <v>249</v>
@@ -22601,23 +22607,23 @@
       <c r="AII8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AIJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AIO8" s="7" t="s">
-        <v>249</v>
+      <c r="AIJ8" s="7">
+        <v>101.41540000000001</v>
+      </c>
+      <c r="AIK8" s="7">
+        <v>101.5381</v>
+      </c>
+      <c r="AIL8" s="7">
+        <v>101.2</v>
+      </c>
+      <c r="AIM8" s="7">
+        <v>101.2525</v>
+      </c>
+      <c r="AIN8" s="7">
+        <v>1012.461</v>
+      </c>
+      <c r="AIO8" s="7">
+        <v>390000</v>
       </c>
       <c r="AIP8" s="7" t="s">
         <v>249</v>
@@ -22655,23 +22661,23 @@
       <c r="AJA8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AJB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJE8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJF8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJG8" s="7" t="s">
-        <v>249</v>
+      <c r="AJB8" s="7">
+        <v>101.0334</v>
+      </c>
+      <c r="AJC8" s="7">
+        <v>101.5003</v>
+      </c>
+      <c r="AJD8" s="7">
+        <v>100.8871</v>
+      </c>
+      <c r="AJE8" s="7">
+        <v>100.91630000000001</v>
+      </c>
+      <c r="AJF8" s="7">
+        <v>1013.672</v>
+      </c>
+      <c r="AJG8" s="7">
+        <v>940000</v>
       </c>
       <c r="AJH8" s="7" t="s">
         <v>249</v>
@@ -22709,17 +22715,17 @@
       <c r="AJS8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AJT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AJW8" s="7" t="s">
-        <v>249</v>
+      <c r="AJT8" s="7">
+        <v>101.77509999999999</v>
+      </c>
+      <c r="AJU8" s="7">
+        <v>101.77509999999999</v>
+      </c>
+      <c r="AJV8" s="7">
+        <v>101.77509999999999</v>
+      </c>
+      <c r="AJW8" s="7">
+        <v>101.77509999999999</v>
       </c>
       <c r="AJX8" s="7" t="s">
         <v>249</v>
@@ -22727,23 +22733,23 @@
       <c r="AJY8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AJZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKE8" s="7" t="s">
-        <v>249</v>
+      <c r="AJZ8" s="7">
+        <v>100.37</v>
+      </c>
+      <c r="AKA8" s="7">
+        <v>100.376</v>
+      </c>
+      <c r="AKB8" s="7">
+        <v>100.1438</v>
+      </c>
+      <c r="AKC8" s="7">
+        <v>100.3023</v>
+      </c>
+      <c r="AKD8" s="7">
+        <v>1003.4</v>
+      </c>
+      <c r="AKE8" s="7">
+        <v>2900000</v>
       </c>
       <c r="AKF8" s="7" t="s">
         <v>249</v>
@@ -22763,17 +22769,17 @@
       <c r="AKK8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AKL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKO8" s="7" t="s">
-        <v>249</v>
+      <c r="AKL8" s="7">
+        <v>100.20350000000001</v>
+      </c>
+      <c r="AKM8" s="7">
+        <v>100.20350000000001</v>
+      </c>
+      <c r="AKN8" s="7">
+        <v>100.20350000000001</v>
+      </c>
+      <c r="AKO8" s="7">
+        <v>100.20350000000001</v>
       </c>
       <c r="AKP8" s="7" t="s">
         <v>249</v>
@@ -22781,23 +22787,23 @@
       <c r="AKQ8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AKR8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKS8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKT8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKU8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AKW8" s="7" t="s">
-        <v>249</v>
+      <c r="AKR8" s="7">
+        <v>100.12050000000001</v>
+      </c>
+      <c r="AKS8" s="7">
+        <v>100.32769999999999</v>
+      </c>
+      <c r="AKT8" s="7">
+        <v>99.996499999999997</v>
+      </c>
+      <c r="AKU8" s="7">
+        <v>100.0378</v>
+      </c>
+      <c r="AKV8" s="7">
+        <v>1001.99</v>
+      </c>
+      <c r="AKW8" s="7">
+        <v>3000000</v>
       </c>
       <c r="AKX8" s="7" t="s">
         <v>249</v>
@@ -22835,23 +22841,23 @@
       <c r="ALI8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ALJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALK8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALL8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALM8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALO8" s="7" t="s">
-        <v>249</v>
+      <c r="ALJ8" s="7">
+        <v>99.450599999999994</v>
+      </c>
+      <c r="ALK8" s="7">
+        <v>100.416</v>
+      </c>
+      <c r="ALL8" s="7">
+        <v>99.2</v>
+      </c>
+      <c r="ALM8" s="7">
+        <v>99.270700000000005</v>
+      </c>
+      <c r="ALN8" s="7">
+        <v>998.98</v>
+      </c>
+      <c r="ALO8" s="7">
+        <v>9560000</v>
       </c>
       <c r="ALP8" s="7" t="s">
         <v>249</v>
@@ -22871,35 +22877,35 @@
       <c r="ALU8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="ALV8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALW8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALX8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALY8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="ALZ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMA8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMB8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMC8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMD8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AME8" s="7" t="s">
-        <v>249</v>
+      <c r="ALV8" s="7">
+        <v>99.792199999999994</v>
+      </c>
+      <c r="ALW8" s="7">
+        <v>99.795900000000003</v>
+      </c>
+      <c r="ALX8" s="7">
+        <v>99.792199999999994</v>
+      </c>
+      <c r="ALY8" s="7">
+        <v>99.795900000000003</v>
+      </c>
+      <c r="ALZ8" s="7">
+        <v>997.94</v>
+      </c>
+      <c r="AMA8" s="7">
+        <v>400000</v>
+      </c>
+      <c r="AMB8" s="7">
+        <v>98.8</v>
+      </c>
+      <c r="AMC8" s="7">
+        <v>98.8</v>
+      </c>
+      <c r="AMD8" s="7">
+        <v>98.8</v>
+      </c>
+      <c r="AME8" s="7">
+        <v>98.8</v>
       </c>
       <c r="AMF8" s="7" t="s">
         <v>249</v>
@@ -22907,17 +22913,17 @@
       <c r="AMG8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AMH8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMI8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMJ8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMK8" s="7" t="s">
-        <v>249</v>
+      <c r="AMH8" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AMI8" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AMJ8" s="7">
+        <v>99.9</v>
+      </c>
+      <c r="AMK8" s="7">
+        <v>99.9</v>
       </c>
       <c r="AML8" s="7" t="s">
         <v>249</v>
@@ -22925,17 +22931,17 @@
       <c r="AMM8" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="AMN8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMO8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMP8" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="AMQ8" s="7" t="s">
-        <v>249</v>
+      <c r="AMN8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AMO8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AMP8" s="7">
+        <v>100</v>
+      </c>
+      <c r="AMQ8" s="7">
+        <v>100</v>
       </c>
       <c r="AMR8" s="7" t="s">
         <v>249</v>
@@ -24203,6 +24209,4373 @@
       <c r="BCW8" s="7" t="s">
         <v>249</v>
       </c>
+    </row>
+    <row r="9" spans="1:1453" x14ac:dyDescent="0.15">
+      <c r="A9" s="4">
+        <v>41142</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="U9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="V9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="W9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="X9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Y9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="CZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="DZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ED9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ER9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ES9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ET9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="EZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="FZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="GZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="HZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ID9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="II9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="IZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="JZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="KZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="LZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ME9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ML9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="MZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ND9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="NZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ON9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="OZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="PZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="QZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="RZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ST9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="SZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="TZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="US9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="UZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="VZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="WZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="XZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="YZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ZZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AAZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ABZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ACZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ADZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AED9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AER9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AES9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AET9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AEZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AFZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AGZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AHZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AID9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AII9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AIZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AJZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AKZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ALZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AME9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AML9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AMZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AND9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ANZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AON9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AOZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="API9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="APZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AQZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ART9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ARZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AST9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ASZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="ATZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AUZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AVZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AWZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AXZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AYZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="AZZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BAZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBW9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBX9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBY9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BBZ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCA9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCB9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCC9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCD9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCE9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCF9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCG9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCH9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCI9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCJ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCK9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCL9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCM9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCN9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCO9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCP9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCQ9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCR9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCS9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCT9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCU9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCV9" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="BCW9" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1453" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1453" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:1453" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
